--- a/Code/Results/Cases/Case_0_122/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_122/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.155959489174502</v>
+        <v>3.184887070376469</v>
       </c>
       <c r="D2">
-        <v>5.402963555601181</v>
+        <v>8.907179426559555</v>
       </c>
       <c r="E2">
-        <v>9.95207524857722</v>
+        <v>13.43293486100962</v>
       </c>
       <c r="F2">
-        <v>36.00356621932114</v>
+        <v>34.97279954082565</v>
       </c>
       <c r="G2">
-        <v>2.018535125273995</v>
+        <v>3.626802777701949</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.29292107263903</v>
+        <v>24.17107080665094</v>
       </c>
       <c r="J2">
-        <v>6.529779954628825</v>
+        <v>9.875322075795385</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.27397540079811</v>
+        <v>26.24867479804472</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.116451258533408</v>
+        <v>3.173039412892372</v>
       </c>
       <c r="D3">
-        <v>5.336285722063168</v>
+        <v>8.918618001936702</v>
       </c>
       <c r="E3">
-        <v>9.589450536726671</v>
+        <v>13.41202101459874</v>
       </c>
       <c r="F3">
-        <v>33.90173506910762</v>
+        <v>34.56710278368461</v>
       </c>
       <c r="G3">
-        <v>2.028202426421514</v>
+        <v>3.630387562387835</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>22.90247652066675</v>
+        <v>23.91486072157212</v>
       </c>
       <c r="J3">
-        <v>6.369653233748592</v>
+        <v>9.878801804244505</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.77484023213362</v>
+        <v>25.97430490216361</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.091570318393545</v>
+        <v>3.165543185052686</v>
       </c>
       <c r="D4">
-        <v>5.298019875621696</v>
+        <v>8.926895744457138</v>
       </c>
       <c r="E4">
-        <v>9.368405775878529</v>
+        <v>13.40211214639553</v>
       </c>
       <c r="F4">
-        <v>32.57748785114472</v>
+        <v>34.32608609072018</v>
       </c>
       <c r="G4">
-        <v>2.034287233897837</v>
+        <v>3.632704804535959</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.0277692494927</v>
+        <v>23.76328479053291</v>
       </c>
       <c r="J4">
-        <v>6.274419361052631</v>
+        <v>9.88276646323262</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.83214078322885</v>
+        <v>25.8120429835944</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.081278867888735</v>
+        <v>3.162432947957929</v>
       </c>
       <c r="D5">
-        <v>5.283089423360258</v>
+        <v>8.930584414495634</v>
       </c>
       <c r="E5">
-        <v>9.278822448659893</v>
+        <v>13.39881351554922</v>
       </c>
       <c r="F5">
-        <v>32.02980803108482</v>
+        <v>34.23001325366262</v>
       </c>
       <c r="G5">
-        <v>2.036806473709187</v>
+        <v>3.633678420639572</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>21.66635477851561</v>
+        <v>23.70302570273661</v>
       </c>
       <c r="J5">
-        <v>6.236399954408467</v>
+        <v>9.884841610473202</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.44272618089942</v>
+        <v>25.74754968645196</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.079560916210135</v>
+        <v>3.161913154073516</v>
       </c>
       <c r="D6">
-        <v>5.280650005987969</v>
+        <v>8.931215965042892</v>
       </c>
       <c r="E6">
-        <v>9.263979876372112</v>
+        <v>13.39831047878087</v>
       </c>
       <c r="F6">
-        <v>31.93839618640245</v>
+        <v>34.21419303463604</v>
       </c>
       <c r="G6">
-        <v>2.037227245184959</v>
+        <v>3.633841862984083</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>21.60605311497891</v>
+        <v>23.69311276154824</v>
       </c>
       <c r="J6">
-        <v>6.230134930782746</v>
+        <v>9.885213932416457</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.37775823946034</v>
+        <v>25.73694103359404</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.091432134878312</v>
+        <v>3.165501463507393</v>
       </c>
       <c r="D7">
-        <v>5.297815845749429</v>
+        <v>8.926944214058942</v>
       </c>
       <c r="E7">
-        <v>9.367195496510943</v>
+        <v>13.40206466430567</v>
       </c>
       <c r="F7">
-        <v>32.57013351761957</v>
+        <v>34.32478159746022</v>
       </c>
       <c r="G7">
-        <v>2.034321046047152</v>
+        <v>3.632717816198798</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.02291471438991</v>
+        <v>23.76246591904307</v>
       </c>
       <c r="J7">
-        <v>6.273903404360176</v>
+        <v>9.882792589188515</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.82690977858508</v>
+        <v>25.81116651585117</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>2.142468791238389</v>
+        <v>3.180848187150833</v>
       </c>
       <c r="D8">
-        <v>5.379412361242622</v>
+        <v>8.910863099260368</v>
       </c>
       <c r="E8">
-        <v>9.826758805149208</v>
+        <v>13.42511651026994</v>
       </c>
       <c r="F8">
-        <v>35.28607489226081</v>
+        <v>34.83130573294215</v>
       </c>
       <c r="G8">
-        <v>2.021838823801261</v>
+        <v>3.628014766264922</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.81800573924179</v>
+        <v>24.08157950035088</v>
       </c>
       <c r="J8">
-        <v>6.473935797302481</v>
+        <v>9.87614240908356</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.76185583155387</v>
+        <v>26.15282793226649</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>2.237439102650953</v>
+        <v>3.209171912478049</v>
       </c>
       <c r="D9">
-        <v>5.561070325863169</v>
+        <v>8.889280952871653</v>
       </c>
       <c r="E9">
-        <v>10.73745082650516</v>
+        <v>13.49347747762701</v>
       </c>
       <c r="F9">
-        <v>40.33196566026668</v>
+        <v>35.88364097495468</v>
       </c>
       <c r="G9">
-        <v>1.998437332467857</v>
+        <v>3.619708880248593</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.16274043488189</v>
+        <v>24.74981802204094</v>
       </c>
       <c r="J9">
-        <v>6.890195351691945</v>
+        <v>9.877608563381783</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>29.37023142728282</v>
+        <v>26.8687921675616</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2.303896406707175</v>
+        <v>3.228886812376733</v>
       </c>
       <c r="D10">
-        <v>5.708370241366755</v>
+        <v>8.879490553274922</v>
       </c>
       <c r="E10">
-        <v>11.40912359277111</v>
+        <v>13.55763621742071</v>
       </c>
       <c r="F10">
-        <v>43.87946306212482</v>
+        <v>36.68574067888086</v>
       </c>
       <c r="G10">
-        <v>1.981735712766512</v>
+        <v>3.614158490422723</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>29.8071980616448</v>
+        <v>25.26237089453181</v>
       </c>
       <c r="J10">
-        <v>7.210319079726005</v>
+        <v>9.887524230839666</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>32.1155920328817</v>
+        <v>27.41830099875531</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.33337487474389</v>
+        <v>3.237614892092953</v>
       </c>
       <c r="D11">
-        <v>5.778548584464299</v>
+        <v>8.876352657301947</v>
       </c>
       <c r="E11">
-        <v>11.71494952443816</v>
+        <v>13.58979817134243</v>
       </c>
       <c r="F11">
-        <v>45.54356214998455</v>
+        <v>37.05538728041412</v>
       </c>
       <c r="G11">
-        <v>1.974202651561461</v>
+        <v>3.611751841278708</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>30.97576360411266</v>
+        <v>25.49928966524189</v>
       </c>
       <c r="J11">
-        <v>7.359105706623695</v>
+        <v>9.893949522941307</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>33.37061936570748</v>
+        <v>27.67238650064728</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.344426911674267</v>
+        <v>3.240885143120051</v>
       </c>
       <c r="D12">
-        <v>5.805595332009682</v>
+        <v>8.8753534292153</v>
       </c>
       <c r="E12">
-        <v>11.83080051964581</v>
+        <v>13.60239967141665</v>
       </c>
       <c r="F12">
-        <v>46.16667275704884</v>
+        <v>37.19591936505108</v>
       </c>
       <c r="G12">
-        <v>1.971355398024043</v>
+        <v>3.610857396270092</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>31.41262291420818</v>
+        <v>25.58946456604475</v>
       </c>
       <c r="J12">
-        <v>7.415916037194117</v>
+        <v>9.896657164325662</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>33.83998916685381</v>
+        <v>27.76910816928887</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>2.342051621278352</v>
+        <v>3.240182392637692</v>
       </c>
       <c r="D13">
-        <v>5.79974906562846</v>
+        <v>8.875560227432794</v>
       </c>
       <c r="E13">
-        <v>11.80584782568661</v>
+        <v>13.5996670164717</v>
       </c>
       <c r="F13">
-        <v>46.03278213195728</v>
+        <v>37.16563065336729</v>
       </c>
       <c r="G13">
-        <v>1.971968434887297</v>
+        <v>3.611049280982573</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>31.31878364633932</v>
+        <v>25.57002466897509</v>
       </c>
       <c r="J13">
-        <v>7.40365977466228</v>
+        <v>9.896061830545133</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>33.73915815177811</v>
+        <v>27.74825633861128</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>2.334286366102783</v>
+        <v>3.237884638579152</v>
       </c>
       <c r="D14">
-        <v>5.780764180956894</v>
+        <v>8.876266663110588</v>
       </c>
       <c r="E14">
-        <v>11.72447973636905</v>
+        <v>13.59082647073775</v>
       </c>
       <c r="F14">
-        <v>45.59496492938489</v>
+        <v>37.06693856223235</v>
       </c>
       <c r="G14">
-        <v>1.973968323306368</v>
+        <v>3.61167791662476</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>31.01181570798726</v>
+        <v>25.5066996760724</v>
       </c>
       <c r="J14">
-        <v>7.363770032505816</v>
+        <v>9.894166785621948</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>33.40935064804822</v>
+        <v>27.68033422296784</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>2.329515424978342</v>
+        <v>3.23647264543239</v>
       </c>
       <c r="D15">
-        <v>5.769197345268431</v>
+        <v>8.876723985602377</v>
       </c>
       <c r="E15">
-        <v>11.67464525258341</v>
+        <v>13.58546622723222</v>
       </c>
       <c r="F15">
-        <v>45.32588245127346</v>
+        <v>37.00655521686863</v>
       </c>
       <c r="G15">
-        <v>1.97519388472319</v>
+        <v>3.612065172022336</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.82306245286805</v>
+        <v>25.46796864448457</v>
       </c>
       <c r="J15">
-        <v>7.339397942368133</v>
+        <v>9.893041739964753</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>33.20657797743497</v>
+        <v>27.63879317500574</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>2.301954537432891</v>
+        <v>3.228311548051888</v>
       </c>
       <c r="D16">
-        <v>5.70384900714572</v>
+        <v>8.879722084771453</v>
       </c>
       <c r="E16">
-        <v>11.38914234169619</v>
+        <v>13.55559378609663</v>
       </c>
       <c r="F16">
-        <v>43.76970468899917</v>
+        <v>36.66166815196527</v>
       </c>
       <c r="G16">
-        <v>1.982228990291217</v>
+        <v>3.614318141252795</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>29.73002196617415</v>
+        <v>25.24695633307855</v>
       </c>
       <c r="J16">
-        <v>7.20066006223229</v>
+        <v>9.887142786062588</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>32.03273227594999</v>
+        <v>27.40177127560219</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>2.284851968645719</v>
+        <v>3.223243194034743</v>
       </c>
       <c r="D17">
-        <v>5.66458235747099</v>
+        <v>8.881898214503742</v>
       </c>
       <c r="E17">
-        <v>11.21406063245641</v>
+        <v>13.53802649215893</v>
       </c>
       <c r="F17">
-        <v>42.84902544042067</v>
+        <v>36.45121898641334</v>
       </c>
       <c r="G17">
-        <v>1.986558691221333</v>
+        <v>3.61573047797931</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>29.04908875886881</v>
+        <v>25.11227666083741</v>
       </c>
       <c r="J17">
-        <v>7.116365032407719</v>
+        <v>9.884013840549324</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>31.30180017077596</v>
+        <v>27.25735771348779</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>2.274944241354682</v>
+        <v>3.22030540942308</v>
       </c>
       <c r="D18">
-        <v>5.64229457968856</v>
+        <v>8.883273731021669</v>
       </c>
       <c r="E18">
-        <v>11.11338304320713</v>
+        <v>13.52820271101449</v>
       </c>
       <c r="F18">
-        <v>42.32295025858186</v>
+        <v>36.33063071707133</v>
       </c>
       <c r="G18">
-        <v>1.989055362198441</v>
+        <v>3.616553953218653</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.6535271786658</v>
+        <v>25.03517087522831</v>
       </c>
       <c r="J18">
-        <v>7.0681769117324</v>
+        <v>9.882394425402193</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>30.87731957989932</v>
+        <v>27.17468699768396</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>2.271577581793408</v>
+        <v>3.219306854133521</v>
       </c>
       <c r="D19">
-        <v>5.63479896045644</v>
+        <v>8.883760735919116</v>
       </c>
       <c r="E19">
-        <v>11.07929993088998</v>
+        <v>13.52492487384943</v>
       </c>
       <c r="F19">
-        <v>42.14420855137276</v>
+        <v>36.28988400256065</v>
       </c>
       <c r="G19">
-        <v>1.989901893441014</v>
+        <v>3.616834683653743</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.51891794755164</v>
+        <v>25.00912821015884</v>
       </c>
       <c r="J19">
-        <v>7.051911850394473</v>
+        <v>9.881877102131957</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>30.73289094225661</v>
+        <v>27.14676608934437</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>2.286679911506688</v>
+        <v>3.22378507050593</v>
       </c>
       <c r="D20">
-        <v>5.66873147906093</v>
+        <v>8.881653743502332</v>
       </c>
       <c r="E20">
-        <v>11.23269587854011</v>
+        <v>13.5398675715803</v>
       </c>
       <c r="F20">
-        <v>42.9460957287823</v>
+        <v>36.47357536012329</v>
       </c>
       <c r="G20">
-        <v>1.986097157819197</v>
+        <v>3.615578980493172</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>29.1219776923337</v>
+        <v>25.12657703735449</v>
       </c>
       <c r="J20">
-        <v>7.125307664709799</v>
+        <v>9.884328269894416</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>31.38002815973756</v>
+        <v>27.27269082254469</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>2.33657023497172</v>
+        <v>3.238560493944145</v>
       </c>
       <c r="D21">
-        <v>5.78632755786865</v>
+        <v>8.876054037480355</v>
       </c>
       <c r="E21">
-        <v>11.74837826824938</v>
+        <v>13.59341173398039</v>
       </c>
       <c r="F21">
-        <v>45.72375073237681</v>
+        <v>37.095912796592</v>
       </c>
       <c r="G21">
-        <v>1.973380796121432</v>
+        <v>3.61149281323827</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>31.10213045356557</v>
+        <v>25.52528795337733</v>
       </c>
       <c r="J21">
-        <v>7.375473755559321</v>
+        <v>9.894715963075924</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>33.50638004565995</v>
+        <v>27.70027157568704</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>2.36852968459734</v>
+        <v>3.248013611457706</v>
       </c>
       <c r="D22">
-        <v>5.865942760512204</v>
+        <v>8.87349596585937</v>
       </c>
       <c r="E22">
-        <v>12.08566518722289</v>
+        <v>13.63086546988134</v>
       </c>
       <c r="F22">
-        <v>47.52469856114862</v>
+        <v>37.50582122806088</v>
       </c>
       <c r="G22">
-        <v>1.965098924695825</v>
+        <v>3.608920729752565</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>32.36350774477702</v>
+        <v>25.78850597668636</v>
       </c>
       <c r="J22">
-        <v>7.54171386150518</v>
+        <v>9.903104544899231</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>34.86197372841893</v>
+        <v>27.98262404594374</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>2.351532206370448</v>
+        <v>3.242987029473825</v>
       </c>
       <c r="D23">
-        <v>5.823192075729049</v>
+        <v>8.874760529569647</v>
       </c>
       <c r="E23">
-        <v>11.90561855721521</v>
+        <v>13.61065260601587</v>
       </c>
       <c r="F23">
-        <v>46.56710844206061</v>
+        <v>37.2867977169572</v>
       </c>
       <c r="G23">
-        <v>1.969517894033053</v>
+        <v>3.610284523830448</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>31.69317636555126</v>
+        <v>25.64780700570682</v>
       </c>
       <c r="J23">
-        <v>7.452730297489571</v>
+        <v>9.898481347597158</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>34.14147291183367</v>
+        <v>27.83168995744551</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>2.285853732679654</v>
+        <v>3.223540162627329</v>
       </c>
       <c r="D24">
-        <v>5.666854767950919</v>
+        <v>8.881763881248714</v>
       </c>
       <c r="E24">
-        <v>11.22427094829932</v>
+        <v>13.53903435982338</v>
       </c>
       <c r="F24">
-        <v>42.90222220172906</v>
+        <v>36.46346678210745</v>
       </c>
       <c r="G24">
-        <v>1.986305793517532</v>
+        <v>3.615647436664228</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>29.08903734727935</v>
+        <v>25.12011082369087</v>
       </c>
       <c r="J24">
-        <v>7.121263847409748</v>
+        <v>9.884185557348077</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>31.34467457050665</v>
+        <v>27.26575761288615</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>2.212316597920656</v>
+        <v>3.201700739316453</v>
       </c>
       <c r="D25">
-        <v>5.509546535754076</v>
+        <v>8.894053946642025</v>
       </c>
       <c r="E25">
-        <v>10.49046269125491</v>
+        <v>13.47252147058632</v>
       </c>
       <c r="F25">
-        <v>38.99815140848821</v>
+        <v>35.59335385997625</v>
       </c>
       <c r="G25">
-        <v>2.004668816523383</v>
+        <v>3.62185841508966</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>26.27760987000837</v>
+        <v>24.56493140925225</v>
       </c>
       <c r="J25">
-        <v>6.77506846032197</v>
+        <v>9.875658675796123</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>28.41497854770491</v>
+        <v>26.67064358845211</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_122/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_122/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.184887070376469</v>
+        <v>2.155959489174741</v>
       </c>
       <c r="D2">
-        <v>8.907179426559555</v>
+        <v>5.402963555601128</v>
       </c>
       <c r="E2">
-        <v>13.43293486100962</v>
+        <v>9.952075248577227</v>
       </c>
       <c r="F2">
-        <v>34.97279954082565</v>
+        <v>36.00356621932116</v>
       </c>
       <c r="G2">
-        <v>3.626802777701949</v>
+        <v>2.018535125273861</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.17107080665094</v>
+        <v>24.29292107263906</v>
       </c>
       <c r="J2">
-        <v>9.875322075795385</v>
+        <v>6.529779954628877</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.24867479804472</v>
+        <v>26.27397540079816</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.173039412892372</v>
+        <v>2.116451258533283</v>
       </c>
       <c r="D3">
-        <v>8.918618001936702</v>
+        <v>5.336285722063005</v>
       </c>
       <c r="E3">
-        <v>13.41202101459874</v>
+        <v>9.589450536726634</v>
       </c>
       <c r="F3">
-        <v>34.56710278368461</v>
+        <v>33.90173506910757</v>
       </c>
       <c r="G3">
-        <v>3.630387562387835</v>
+        <v>2.028202426421646</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.91486072157212</v>
+        <v>22.90247652066671</v>
       </c>
       <c r="J3">
-        <v>9.878801804244505</v>
+        <v>6.369653233748609</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.97430490216361</v>
+        <v>24.7748402321336</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>3.165543185052686</v>
+        <v>2.091570318393294</v>
       </c>
       <c r="D4">
-        <v>8.926895744457138</v>
+        <v>5.298019875621788</v>
       </c>
       <c r="E4">
-        <v>13.40211214639553</v>
+        <v>9.368405775878527</v>
       </c>
       <c r="F4">
-        <v>34.32608609072018</v>
+        <v>32.57748785114461</v>
       </c>
       <c r="G4">
-        <v>3.632704804535959</v>
+        <v>2.034287233897567</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.76328479053291</v>
+        <v>22.02776924949264</v>
       </c>
       <c r="J4">
-        <v>9.88276646323262</v>
+        <v>6.274419361052661</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.8120429835944</v>
+        <v>23.83214078322879</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>3.162432947957929</v>
+        <v>2.081278867888991</v>
       </c>
       <c r="D5">
-        <v>8.930584414495634</v>
+        <v>5.283089423360368</v>
       </c>
       <c r="E5">
-        <v>13.39881351554922</v>
+        <v>9.278822448659897</v>
       </c>
       <c r="F5">
-        <v>34.23001325366262</v>
+        <v>32.02980803108481</v>
       </c>
       <c r="G5">
-        <v>3.633678420639572</v>
+        <v>2.036806473709055</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.70302570273661</v>
+        <v>21.66635477851559</v>
       </c>
       <c r="J5">
-        <v>9.884841610473202</v>
+        <v>6.236399954408469</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.74754968645196</v>
+        <v>23.4427261808994</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>3.161913154073516</v>
+        <v>2.079560916210138</v>
       </c>
       <c r="D6">
-        <v>8.931215965042892</v>
+        <v>5.280650005987809</v>
       </c>
       <c r="E6">
-        <v>13.39831047878087</v>
+        <v>9.263979876372032</v>
       </c>
       <c r="F6">
-        <v>34.21419303463604</v>
+        <v>31.93839618640252</v>
       </c>
       <c r="G6">
-        <v>3.633841862984083</v>
+        <v>2.03722724518469</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.69311276154824</v>
+        <v>21.60605311497898</v>
       </c>
       <c r="J6">
-        <v>9.885213932416457</v>
+        <v>6.230134930782746</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.73694103359404</v>
+        <v>23.37775823946042</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>3.165501463507393</v>
+        <v>2.091432134878441</v>
       </c>
       <c r="D7">
-        <v>8.926944214058942</v>
+        <v>5.297815845749438</v>
       </c>
       <c r="E7">
-        <v>13.40206466430567</v>
+        <v>9.367195496510936</v>
       </c>
       <c r="F7">
-        <v>34.32478159746022</v>
+        <v>32.5701335176196</v>
       </c>
       <c r="G7">
-        <v>3.632717816198798</v>
+        <v>2.034321046047153</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.76246591904307</v>
+        <v>22.02291471438993</v>
       </c>
       <c r="J7">
-        <v>9.882792589188515</v>
+        <v>6.273903404360206</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.81116651585117</v>
+        <v>23.8269097785851</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>3.180848187150833</v>
+        <v>2.142468791238506</v>
       </c>
       <c r="D8">
-        <v>8.910863099260368</v>
+        <v>5.379412361242671</v>
       </c>
       <c r="E8">
-        <v>13.42511651026994</v>
+        <v>9.82675880514924</v>
       </c>
       <c r="F8">
-        <v>34.83130573294215</v>
+        <v>35.28607489226079</v>
       </c>
       <c r="G8">
-        <v>3.628014766264922</v>
+        <v>2.021838823801126</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.08157950035088</v>
+        <v>23.81800573924176</v>
       </c>
       <c r="J8">
-        <v>9.87614240908356</v>
+        <v>6.473935797302524</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.15282793226649</v>
+        <v>25.76185583155384</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>3.209171912478049</v>
+        <v>2.237439102650953</v>
       </c>
       <c r="D9">
-        <v>8.889280952871653</v>
+        <v>5.561070325863157</v>
       </c>
       <c r="E9">
-        <v>13.49347747762701</v>
+        <v>10.73745082650514</v>
       </c>
       <c r="F9">
-        <v>35.88364097495468</v>
+        <v>40.33196566026673</v>
       </c>
       <c r="G9">
-        <v>3.619708880248593</v>
+        <v>1.998437332467985</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.74981802204094</v>
+        <v>27.16274043488192</v>
       </c>
       <c r="J9">
-        <v>9.877608563381783</v>
+        <v>6.890195351691932</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.8687921675616</v>
+        <v>29.37023142728285</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>3.228886812376733</v>
+        <v>2.303896406707289</v>
       </c>
       <c r="D10">
-        <v>8.879490553274922</v>
+        <v>5.708370241366618</v>
       </c>
       <c r="E10">
-        <v>13.55763621742071</v>
+        <v>11.4091235927711</v>
       </c>
       <c r="F10">
-        <v>36.68574067888086</v>
+        <v>43.87946306212481</v>
       </c>
       <c r="G10">
-        <v>3.614158490422723</v>
+        <v>1.981735712766517</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.26237089453181</v>
+        <v>29.80719806164478</v>
       </c>
       <c r="J10">
-        <v>9.887524230839666</v>
+        <v>7.210319079726016</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>27.41830099875531</v>
+        <v>32.11559203288166</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>3.237614892092953</v>
+        <v>2.333374874743759</v>
       </c>
       <c r="D11">
-        <v>8.876352657301947</v>
+        <v>5.778548584464172</v>
       </c>
       <c r="E11">
-        <v>13.58979817134243</v>
+        <v>11.71494952443816</v>
       </c>
       <c r="F11">
-        <v>37.05538728041412</v>
+        <v>45.54356214998464</v>
       </c>
       <c r="G11">
-        <v>3.611751841278708</v>
+        <v>1.974202651561462</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25.49928966524189</v>
+        <v>30.97576360411273</v>
       </c>
       <c r="J11">
-        <v>9.893949522941307</v>
+        <v>7.359105706623706</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>27.67238650064728</v>
+        <v>33.37061936570758</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>3.240885143120051</v>
+        <v>2.344426911674033</v>
       </c>
       <c r="D12">
-        <v>8.8753534292153</v>
+        <v>5.805595332009632</v>
       </c>
       <c r="E12">
-        <v>13.60239967141665</v>
+        <v>11.83080051964579</v>
       </c>
       <c r="F12">
-        <v>37.19591936505108</v>
+        <v>46.16667275704899</v>
       </c>
       <c r="G12">
-        <v>3.610857396270092</v>
+        <v>1.97135539802404</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25.58946456604475</v>
+        <v>31.41262291420829</v>
       </c>
       <c r="J12">
-        <v>9.896657164325662</v>
+        <v>7.415916037194103</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>27.76910816928887</v>
+        <v>33.83998916685394</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>3.240182392637692</v>
+        <v>2.342051621278455</v>
       </c>
       <c r="D13">
-        <v>8.875560227432794</v>
+        <v>5.799749065628341</v>
       </c>
       <c r="E13">
-        <v>13.5996670164717</v>
+        <v>11.80584782568658</v>
       </c>
       <c r="F13">
-        <v>37.16563065336729</v>
+        <v>46.03278213195723</v>
       </c>
       <c r="G13">
-        <v>3.611049280982573</v>
+        <v>1.971968434887164</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25.57002466897509</v>
+        <v>31.31878364633929</v>
       </c>
       <c r="J13">
-        <v>9.896061830545133</v>
+        <v>7.403659774662287</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>27.74825633861128</v>
+        <v>33.73915815177807</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>3.237884638579152</v>
+        <v>2.334286366102671</v>
       </c>
       <c r="D14">
-        <v>8.876266663110588</v>
+        <v>5.780764180956888</v>
       </c>
       <c r="E14">
-        <v>13.59082647073775</v>
+        <v>11.72447973636906</v>
       </c>
       <c r="F14">
-        <v>37.06693856223235</v>
+        <v>45.59496492938494</v>
       </c>
       <c r="G14">
-        <v>3.61167791662476</v>
+        <v>1.973968323306233</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>25.5066996760724</v>
+        <v>31.0118157079873</v>
       </c>
       <c r="J14">
-        <v>9.894166785621948</v>
+        <v>7.363770032505829</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>27.68033422296784</v>
+        <v>33.40935064804827</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>3.23647264543239</v>
+        <v>2.329515424978211</v>
       </c>
       <c r="D15">
-        <v>8.876723985602377</v>
+        <v>5.769197345268432</v>
       </c>
       <c r="E15">
-        <v>13.58546622723222</v>
+        <v>11.67464525258341</v>
       </c>
       <c r="F15">
-        <v>37.00655521686863</v>
+        <v>45.32588245127351</v>
       </c>
       <c r="G15">
-        <v>3.612065172022336</v>
+        <v>1.975193884723321</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.46796864448457</v>
+        <v>30.82306245286809</v>
       </c>
       <c r="J15">
-        <v>9.893041739964753</v>
+        <v>7.339397942368133</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>27.63879317500574</v>
+        <v>33.20657797743503</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>3.228311548051888</v>
+        <v>2.301954537432882</v>
       </c>
       <c r="D16">
-        <v>8.879722084771453</v>
+        <v>5.703849007145582</v>
       </c>
       <c r="E16">
-        <v>13.55559378609663</v>
+        <v>11.38914234169618</v>
       </c>
       <c r="F16">
-        <v>36.66166815196527</v>
+        <v>43.76970468899925</v>
       </c>
       <c r="G16">
-        <v>3.614318141252795</v>
+        <v>1.982228990291215</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.24695633307855</v>
+        <v>29.73002196617421</v>
       </c>
       <c r="J16">
-        <v>9.887142786062588</v>
+        <v>7.200660062232295</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>27.40177127560219</v>
+        <v>32.03273227595004</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>3.223243194034743</v>
+        <v>2.284851968645833</v>
       </c>
       <c r="D17">
-        <v>8.881898214503742</v>
+        <v>5.664582357470915</v>
       </c>
       <c r="E17">
-        <v>13.53802649215893</v>
+        <v>11.21406063245647</v>
       </c>
       <c r="F17">
-        <v>36.45121898641334</v>
+        <v>42.84902544042067</v>
       </c>
       <c r="G17">
-        <v>3.61573047797931</v>
+        <v>1.986558691221198</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.11227666083741</v>
+        <v>29.04908875886877</v>
       </c>
       <c r="J17">
-        <v>9.884013840549324</v>
+        <v>7.116365032407759</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>27.25735771348779</v>
+        <v>31.30180017077592</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>3.22030540942308</v>
+        <v>2.274944241354682</v>
       </c>
       <c r="D18">
-        <v>8.883273731021669</v>
+        <v>5.64229457968856</v>
       </c>
       <c r="E18">
-        <v>13.52820271101449</v>
+        <v>11.11338304320714</v>
       </c>
       <c r="F18">
-        <v>36.33063071707133</v>
+        <v>42.32295025858189</v>
       </c>
       <c r="G18">
-        <v>3.616553953218653</v>
+        <v>1.989055362198443</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.03517087522831</v>
+        <v>28.6535271786658</v>
       </c>
       <c r="J18">
-        <v>9.882394425402193</v>
+        <v>7.06817691173241</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>27.17468699768396</v>
+        <v>30.87731957989932</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>3.219306854133521</v>
+        <v>2.271577581793506</v>
       </c>
       <c r="D19">
-        <v>8.883760735919116</v>
+        <v>5.634798960456253</v>
       </c>
       <c r="E19">
-        <v>13.52492487384943</v>
+        <v>11.07929993088991</v>
       </c>
       <c r="F19">
-        <v>36.28988400256065</v>
+        <v>42.14420855137263</v>
       </c>
       <c r="G19">
-        <v>3.616834683653743</v>
+        <v>1.989901893440883</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.00912821015884</v>
+        <v>28.51891794755149</v>
       </c>
       <c r="J19">
-        <v>9.881877102131957</v>
+        <v>7.05191185039447</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>27.14676608934437</v>
+        <v>30.73289094225645</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>3.22378507050593</v>
+        <v>2.286679911506679</v>
       </c>
       <c r="D20">
-        <v>8.881653743502332</v>
+        <v>5.668731479060909</v>
       </c>
       <c r="E20">
-        <v>13.5398675715803</v>
+        <v>11.23269587854014</v>
       </c>
       <c r="F20">
-        <v>36.47357536012329</v>
+        <v>42.94609572878233</v>
       </c>
       <c r="G20">
-        <v>3.615578980493172</v>
+        <v>1.986097157819462</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.12657703735449</v>
+        <v>29.12197769233373</v>
       </c>
       <c r="J20">
-        <v>9.884328269894416</v>
+        <v>7.125307664709796</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>27.27269082254469</v>
+        <v>31.38002815973759</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>3.238560493944145</v>
+        <v>2.336570234971684</v>
       </c>
       <c r="D21">
-        <v>8.876054037480355</v>
+        <v>5.786327557868599</v>
       </c>
       <c r="E21">
-        <v>13.59341173398039</v>
+        <v>11.74837826824939</v>
       </c>
       <c r="F21">
-        <v>37.095912796592</v>
+        <v>45.72375073237689</v>
       </c>
       <c r="G21">
-        <v>3.61149281323827</v>
+        <v>1.973380796121304</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>25.52528795337733</v>
+        <v>31.10213045356561</v>
       </c>
       <c r="J21">
-        <v>9.894715963075924</v>
+        <v>7.375473755559321</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>27.70027157568704</v>
+        <v>33.50638004566002</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>3.248013611457706</v>
+        <v>2.368529684597117</v>
       </c>
       <c r="D22">
-        <v>8.87349596585937</v>
+        <v>5.865942760512254</v>
       </c>
       <c r="E22">
-        <v>13.63086546988134</v>
+        <v>12.0856651872229</v>
       </c>
       <c r="F22">
-        <v>37.50582122806088</v>
+        <v>47.52469856114862</v>
       </c>
       <c r="G22">
-        <v>3.608920729752565</v>
+        <v>1.96509892469582</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>25.78850597668636</v>
+        <v>32.36350774477698</v>
       </c>
       <c r="J22">
-        <v>9.903104544899231</v>
+        <v>7.54171386150518</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>27.98262404594374</v>
+        <v>34.8619737284189</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>3.242987029473825</v>
+        <v>2.351532206370439</v>
       </c>
       <c r="D23">
-        <v>8.874760529569647</v>
+        <v>5.823192075729092</v>
       </c>
       <c r="E23">
-        <v>13.61065260601587</v>
+        <v>11.90561855721526</v>
       </c>
       <c r="F23">
-        <v>37.2867977169572</v>
+        <v>46.56710844206052</v>
       </c>
       <c r="G23">
-        <v>3.610284523830448</v>
+        <v>1.969517894033186</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.64780700570682</v>
+        <v>31.69317636555118</v>
       </c>
       <c r="J23">
-        <v>9.898481347597158</v>
+        <v>7.452730297489619</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>27.83168995744551</v>
+        <v>34.14147291183357</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>3.223540162627329</v>
+        <v>2.285853732679646</v>
       </c>
       <c r="D24">
-        <v>8.881763881248714</v>
+        <v>5.66685476795096</v>
       </c>
       <c r="E24">
-        <v>13.53903435982338</v>
+        <v>11.22427094829931</v>
       </c>
       <c r="F24">
-        <v>36.46346678210745</v>
+        <v>42.90222220172908</v>
       </c>
       <c r="G24">
-        <v>3.615647436664228</v>
+        <v>1.986305793517663</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.12011082369087</v>
+        <v>29.08903734727937</v>
       </c>
       <c r="J24">
-        <v>9.884185557348077</v>
+        <v>7.121263847409727</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>27.26575761288615</v>
+        <v>31.34467457050668</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>3.201700739316453</v>
+        <v>2.212316597920766</v>
       </c>
       <c r="D25">
-        <v>8.894053946642025</v>
+        <v>5.509546535754057</v>
       </c>
       <c r="E25">
-        <v>13.47252147058632</v>
+        <v>10.49046269125492</v>
       </c>
       <c r="F25">
-        <v>35.59335385997625</v>
+        <v>38.9981514084882</v>
       </c>
       <c r="G25">
-        <v>3.62185841508966</v>
+        <v>2.004668816523516</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.56493140925225</v>
+        <v>26.27760987000836</v>
       </c>
       <c r="J25">
-        <v>9.875658675796123</v>
+        <v>6.77506846032199</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>26.67064358845211</v>
+        <v>28.41497854770489</v>
       </c>
     </row>
   </sheetData>
